--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.566</v>
+        <v>-13.01</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.552</v>
+        <v>-13.092</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.248000000000001</v>
+        <v>-7.882000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.762</v>
+        <v>-13.138</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.48</v>
+        <v>-7.334999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.816</v>
+        <v>-12.672</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.215999999999999</v>
+        <v>-7.858</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>4.9</v>
+        <v>5.642000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.006</v>
+        <v>12.842</v>
       </c>
     </row>
     <row r="12">
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.74</v>
+        <v>5.568</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-13.213</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,13 +672,13 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.42</v>
+        <v>-11.851</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.15</v>
+        <v>12.915</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>7.012</v>
+        <v>6.844999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.157999999999999</v>
+        <v>-7.822</v>
       </c>
       <c r="E19" t="n">
-        <v>13.562</v>
+        <v>12.846</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.147999999999999</v>
+        <v>-7.858</v>
       </c>
       <c r="E21" t="n">
-        <v>13.726</v>
+        <v>13.378</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.05</v>
+        <v>-13.318</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.422</v>
+        <v>-7.934</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.157999999999999</v>
+        <v>-7.861</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
